--- a/TestPlan_RutwijDevashrayee.xlsx
+++ b/TestPlan_RutwijDevashrayee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevashrayee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevashrayee\Desktop\bugalow_test\bungalow_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447C781-4D30-4D9D-AB9A-B4533C8B09F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B949FDD-26DF-44A8-8212-A7B68681D9D5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{D248239E-240A-4EDF-B893-816C0215C8A7}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5732D653-E89F-4C84-A741-3658CC62BFCE}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestPlan_RutwijDevashrayee.xlsx
+++ b/TestPlan_RutwijDevashrayee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevashrayee\Desktop\bugalow_test\bungalow_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B949FDD-26DF-44A8-8212-A7B68681D9D5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4CF33-CDE8-49B1-8BBC-C2D16AA51333}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{D248239E-240A-4EDF-B893-816C0215C8A7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t xml:space="preserve">TestID </t>
   </si>
@@ -48,34 +48,10 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Poll Page should have poll</t>
-  </si>
-  <si>
-    <t>Making New Poll Should be successful</t>
-  </si>
-  <si>
-    <t>Voting for an option should increase the number accordingly</t>
-  </si>
-  <si>
-    <t>Unsucessful creation of poll should not be shown on main page</t>
-  </si>
-  <si>
-    <t>Hitting vote button without picking an option should error/prompt/do nothing</t>
-  </si>
-  <si>
     <t>Prerequisites/Assumptions</t>
   </si>
   <si>
     <t>Test Name</t>
-  </si>
-  <si>
-    <t>Home page should have the two pre-made polls (that's the sanity test</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Page load time &lt; 250 ms</t>
   </si>
   <si>
     <t>Unit Tests</t>
@@ -160,16 +136,10 @@
     <t>1. Click Vote</t>
   </si>
   <si>
-    <t>1. Should not navigate away from page ( current URL == /vote)</t>
-  </si>
-  <si>
     <t>FP006</t>
   </si>
   <si>
     <t>Vote without Picking an Option (poll 2)</t>
-  </si>
-  <si>
-    <t>1 Should not navigate away from page</t>
   </si>
   <si>
     <t>FP007</t>
@@ -197,6 +167,47 @@
   </si>
   <si>
     <t>1. Verify on Create Poll page</t>
+  </si>
+  <si>
+    <t>FP009</t>
+  </si>
+  <si>
+    <t>1. Verify Message "You didn't select a choice."</t>
+  </si>
+  <si>
+    <t>Unsuccessful Creation of Poll</t>
+  </si>
+  <si>
+    <t>Assumption: There is an ability to create options for the polls</t>
+  </si>
+  <si>
+    <t>1. Click Add a Poll
+2. Enter Question text
+3. Click Save
+4. Do not create any options
+5. Click Save</t>
+  </si>
+  <si>
+    <t>1. Verify on Create Poll page
+2. N/A
+3. Verify text boxes to create options
+4. N/A
+5. Verify Failure</t>
+  </si>
+  <si>
+    <t>FP010</t>
+  </si>
+  <si>
+    <t>Only Successfully Created Polls show up on home page</t>
+  </si>
+  <si>
+    <t>1. Should perform a unsuccessful creation of a poll</t>
+  </si>
+  <si>
+    <t>1. Verify the unsusessful poll does not show up</t>
+  </si>
+  <si>
+    <t># of options available for creation</t>
   </si>
 </sst>
 </file>
@@ -560,31 +571,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5732D653-E89F-4C84-A741-3658CC62BFCE}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -605,178 +616,190 @@
     </row>
     <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H16" t="s">
-        <v>17</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
